--- a/src/Tests/Tests.CustomHeaders.DotNet.verified.xlsx
+++ b/src/Tests/Tests.CustomHeaders.DotNet.verified.xlsx
@@ -39,9 +39,6 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>John Doe</x:t>
   </x:si>
   <x:si>
@@ -54,18 +51,12 @@
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
     <x:t>Jane Smith</x:t>
   </x:si>
   <x:si>
     <x:t>jane@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bob Johnson</x:t>
   </x:si>
   <x:si>
@@ -76,9 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Part Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>Alice Brown</x:t>
@@ -490,14 +478,14 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="2">
         <x:v>43845</x:v>
@@ -506,21 +494,21 @@
         <x:v>75000</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="2">
         <x:v>43546</x:v>
@@ -529,21 +517,21 @@
         <x:v>120000</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="1" t="s">
-        <x:v>15</x:v>
+      <x:c r="A4" s="1">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="2">
         <x:v>44387</x:v>
@@ -552,21 +540,21 @@
         <x:v>45000</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="1" t="s">
-        <x:v>20</x:v>
+      <x:c r="A5" s="1">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="2">
         <x:v>43409</x:v>
@@ -575,10 +563,10 @@
         <x:v>95000</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Tests/Tests.CustomHeaders.DotNet.verified.xlsx
+++ b/src/Tests/Tests.CustomHeaders.DotNet.verified.xlsx
@@ -135,11 +135,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/Tests.CustomHeaders.DotNet.verified.xlsx
+++ b/src/Tests/Tests.CustomHeaders.DotNet.verified.xlsx
@@ -135,11 +135,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
